--- a/application/views/rpt/xlsx/RUS_schet_faktura_2014.xlsx
+++ b/application/views/rpt/xlsx/RUS_schet_faktura_2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Счет Фактура'!$A$1:$AE$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>СЧЕТ-ФАКТУРА №</t>
   </si>
@@ -206,21 +206,9 @@
     <t>{$v[entries][loop][party_label]}</t>
   </si>
   <si>
-    <t>{$v[entries][loop][product_name]}&lt;merge6&gt;</t>
-  </si>
-  <si>
-    <t>{$v[entries][loop][product_unit]}&lt;merge3&gt;</t>
-  </si>
-  <si>
     <t>{$v[entries][loop][product_quantity]}&lt;merge2&gt;</t>
   </si>
   <si>
-    <t>{$v[entries][loop][product_price]}&lt;merge3&gt;</t>
-  </si>
-  <si>
-    <t>{$v[entries][loop][product_sum]}&lt;merge4&gt;</t>
-  </si>
-  <si>
     <t>{$v[entries][loop][product_uktzet]}</t>
   </si>
   <si>
@@ -273,15 +261,6 @@
   </si>
   <si>
     <t>{$v[footer][total]}</t>
-  </si>
-  <si>
-    <t>.18&lt;merge2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;merge2&gt;=P22*V22</t>
-  </si>
-  <si>
-    <t>&lt;merge3&gt;=P22+X22</t>
   </si>
   <si>
     <t>Приложение № 1
@@ -363,6 +342,18 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_name]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_unit]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_price]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_sum]}</t>
   </si>
 </sst>
 </file>
@@ -892,6 +883,204 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -901,15 +1090,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,195 +1131,6 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1485,7 +1476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1499,7 +1490,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:S23"/>
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1529,325 +1520,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
+      <c r="Z1" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
     </row>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
     </row>
     <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="48" t="s">
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="48" t="str">
+      <c r="Q5" s="34" t="str">
         <f>MID(AE5,2,2)</f>
         <v>{$</v>
       </c>
-      <c r="R5" s="48"/>
+      <c r="R5" s="34"/>
       <c r="S5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="103" t="e">
+      <c r="T5" s="29" t="e">
         <f>VLOOKUP(MID(AE5,4,2),db!G3:H14,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="104" t="str">
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="30" t="str">
         <f>MID(AE5,6,4)</f>
         <v>date</v>
       </c>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
       <c r="Z5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
       <c r="O6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="102" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
       <c r="Z7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="102" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
       <c r="Z8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="98" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
       <c r="Z9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="96" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
       <c r="Z10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="97" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
       <c r="Z11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
       <c r="O12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
       <c r="Z12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1858,30 +1849,30 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
       <c r="Z13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,280 +1883,280 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
       <c r="Z14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="75" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
       <c r="Z15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="98" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
       <c r="Z16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="52" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="52" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="52" t="s">
+      <c r="L18" s="37"/>
+      <c r="M18" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="52" t="s">
+      <c r="N18" s="65"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="52" t="s">
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="54"/>
-      <c r="V18" s="52" t="s">
+      <c r="U18" s="37"/>
+      <c r="V18" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="77"/>
-      <c r="X18" s="88" t="s">
+      <c r="W18" s="62"/>
+      <c r="X18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="52" t="s">
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="80" t="s">
-        <v>89</v>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="68" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="81"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="69"/>
     </row>
     <row r="20" spans="1:31" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="60"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="41"/>
       <c r="AC20" s="15" t="s">
         <v>47</v>
       </c>
       <c r="AD20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AE20" s="82"/>
+      <c r="AE20" s="70"/>
     </row>
     <row r="21" spans="1:31" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="53">
         <v>1</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="7">
         <v>2</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="28">
+      <c r="I21" s="54"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="53">
         <v>3</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="28">
+      <c r="L21" s="43"/>
+      <c r="M21" s="53">
         <v>4</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="28">
+      <c r="N21" s="54"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="53">
         <v>5</v>
       </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="28">
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="53">
         <v>6</v>
       </c>
-      <c r="U21" s="30"/>
-      <c r="V21" s="28">
+      <c r="U21" s="43"/>
+      <c r="V21" s="53">
         <v>7</v>
       </c>
-      <c r="W21" s="31"/>
-      <c r="X21" s="91">
+      <c r="W21" s="94"/>
+      <c r="X21" s="42">
         <v>8</v>
       </c>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="28">
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="53">
         <v>9</v>
       </c>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="30"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="43"/>
       <c r="AC21" s="7">
         <v>10</v>
       </c>
@@ -2177,103 +2168,105 @@
       </c>
     </row>
     <row r="22" spans="1:31" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
+      <c r="A22" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="10" t="e">
         <f>VLOOKUP(H22,db!A3:B32,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H22" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="W22" s="84"/>
-      <c r="X22" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="87"/>
+      <c r="H22" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="104"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="71">
+        <v>0.18</v>
+      </c>
+      <c r="W22" s="72"/>
+      <c r="X22" s="44" t="e">
+        <f>_xlnm.P22*_xlnm.V22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="73" t="e">
+        <f>_xlnm.P22+_xlnm.X22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="75"/>
       <c r="AC22" s="10" t="str">
         <f>IFERROR(VLOOKUP(AD22,db!D3:E32,2,0),"")</f>
         <v/>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE22" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="28" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -2307,202 +2300,269 @@
       <c r="AE24" s="1"/>
     </row>
     <row r="25" spans="1:31" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="T25" s="49" t="s">
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="T25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
     </row>
     <row r="26" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="L26" s="76" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="L26" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="Y26" s="72" t="s">
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="Y26" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="76" t="s">
+      <c r="AC26" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
     </row>
     <row r="27" spans="1:31" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
       <c r="T27" s="8"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
     </row>
     <row r="28" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="N28" s="67" t="s">
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="N28" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="U28" s="64" t="s">
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="U28" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
     </row>
     <row r="29" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
     </row>
     <row r="30" spans="1:31" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="Z1:AE4"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:AE30"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A18:F20"/>
+    <mergeCell ref="G18:J19"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="U28:AE28"/>
+    <mergeCell ref="U27:AE27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="M18:O20"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="P18:S20"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A29:AE29"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="T18:U20"/>
+    <mergeCell ref="V18:W20"/>
+    <mergeCell ref="Z18:AB20"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AE20"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="X18:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="G10:Y10"/>
+    <mergeCell ref="G11:Y11"/>
+    <mergeCell ref="G16:Y16"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:W23"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="D13:Y13"/>
@@ -2519,73 +2579,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="X18:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="G10:Y10"/>
-    <mergeCell ref="G11:Y11"/>
-    <mergeCell ref="G16:Y16"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="T18:U20"/>
-    <mergeCell ref="V18:W20"/>
-    <mergeCell ref="Z18:AB20"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AE20"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A29:AE29"/>
-    <mergeCell ref="A30:AE30"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A18:F20"/>
-    <mergeCell ref="G18:J19"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="U28:AE28"/>
-    <mergeCell ref="U27:AE27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="M18:O20"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="P18:S20"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="Z1:AE4"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:U22"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2605,124 +2598,124 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="108" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="108"/>
       <c r="D1" s="108" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" s="108"/>
       <c r="G1" s="108" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E3" s="19">
         <v>643</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" s="19">
         <v>804</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E5" s="19">
         <v>792</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E6" s="19">
         <v>156</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="19">
         <v>112</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2731,10 +2724,10 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="G8" s="24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2743,10 +2736,10 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="G9" s="24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2755,10 +2748,10 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="G10" s="24" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2767,10 +2760,10 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="G11" s="24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2782,7 +2775,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2794,7 +2787,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2806,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
